--- a/biology/Zoologie/Heliconius_wallacei/Heliconius_wallacei.xlsx
+++ b/biology/Zoologie/Heliconius_wallacei/Heliconius_wallacei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heliconius wallacei est un insecte lépidoptère appartenant à la famille des Nymphalidae, à la sous-famille des Heliconiinae et au genre Heliconius.
 </t>
@@ -511,13 +523,11 @@
           <t>Historique et dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Heliconius wallacei a été décrit par l'entomologiste américain Tryon Reakirt en 1866[1]
-Synonymes
-Heliconius clytia
-Nom vernaculaire
-Il se nomme Wallace's Longwing en anglais[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heliconius wallacei a été décrit par l'entomologiste américain Tryon Reakirt en 1866
 </t>
         </is>
       </c>
@@ -543,86 +553,97 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Historique et dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Heliconius clytia</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Heliconius_wallacei</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_wallacei</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Historique et dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se nomme Wallace's Longwing en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Heliconius_wallacei</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_wallacei</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Heliconius wallacei wallacei ; présent au Brésil.
 Heliconius wallacei wallacei forme erechi; Krüger, 1933
-Heliconius wallacei wallacei forme parvimaculata; Riffarth, 1900[3]
+Heliconius wallacei wallacei forme parvimaculata; Riffarth, 1900
 Heliconius wallacei wallacei forme wucherpfennigi; Krüger, 1933
 Heliconius wallacei araguaia Brown, 1976 ; présent au Brésil.
-Heliconius wallacei colon Weymer, 1891[4]; présent au Surinam et au Brésil.
+Heliconius wallacei colon Weymer, 1891; présent au Surinam et au Brésil.
 Heliconius wallacei flavescens Weymer, 1891; présent en Équateur, en Guyana, en Bolivie et au Pérou.
 Heliconius wallacei flavescens forme graphitica Krüger, 1933.
 Heliconius wallacei flavescens forme Quadrimaculata, Neustetter, 1925.
 Heliconius wallacei kayi Neustetter; présent à Trinité-et-Tobago.
-Heliconius wallacei mimulinus Butler, 1873; présent en Colombie[5],[6],[7].</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Heliconius_wallacei</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Heliconius_wallacei</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un grand papillon d'une envergure variant de 70 mm à  75 mm aux ailes allongées et arrondies de couleur marron[8]. Les ailes antérieures sont marron très légèrement suffusées de bleu et coupées de deux barre partielles jaune pâle. Les ailes postérieures sont marron avec sur toute la partie basale une suffusion bleu métallique.
-Le revers est marron avec la même ornementation blanche à jaune pâle aux antérieures.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Heliconius_wallacei</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Heliconius_wallacei</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôtes de sa chenille sont des Passiflora (Passifloraceae)[2].
-</t>
+Heliconius wallacei mimulinus Butler, 1873; présent en Colombie.</t>
         </is>
       </c>
     </row>
@@ -647,14 +668,122 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un grand papillon d'une envergure variant de 70 mm à  75 mm aux ailes allongées et arrondies de couleur marron. Les ailes antérieures sont marron très légèrement suffusées de bleu et coupées de deux barre partielles jaune pâle. Les ailes postérieures sont marron avec sur toute la partie basale une suffusion bleu métallique.
+Le revers est marron avec la même ornementation blanche à jaune pâle aux antérieures.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Heliconius_wallacei</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_wallacei</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Passiflora (Passifloraceae).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Heliconius_wallacei</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_wallacei</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est présent en Guyane, en Guyana, au Surinam, en Équateur, au Venezuela, à Trinité-et-Tobago, en Colombie, en Bolivie, au Brésil et au Pérou[6].
-Biotope
-Il réside dans la forêt tropicale[2].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent en Guyane, en Guyana, au Surinam, en Équateur, au Venezuela, à Trinité-et-Tobago, en Colombie, en Bolivie, au Brésil et au Pérou.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Heliconius_wallacei</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_wallacei</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans la forêt tropicale.
 </t>
         </is>
       </c>
